--- a/report/excelReport/DemoPharmacistAPITestCase.xlsx
+++ b/report/excelReport/DemoPharmacistAPITestCase.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
   </definedNames>

--- a/report/excelReport/DemoPharmacistAPITestCase.xlsx
+++ b/report/excelReport/DemoPharmacistAPITestCase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28800"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28125"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,6 +14,11 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -64,7 +69,7 @@
     <t>药师资质</t>
   </si>
   <si>
-    <t>quest_query_001</t>
+    <t>query_001</t>
   </si>
   <si>
     <t>查询药店药师资质</t>
@@ -146,6 +151,27 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -155,29 +181,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -199,7 +227,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -214,53 +266,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
@@ -269,19 +274,19 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <b val="1"/>
       <color rgb="0000FF00"/>
     </font>
@@ -306,19 +311,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,163 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,22 +524,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,23 +577,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,23 +612,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,10 +625,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="10" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="13" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -632,16 +637,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
@@ -650,115 +655,115 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="8" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="5" fillId="20" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="3" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="24" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="29" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="29" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="12" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,7 +1177,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="E4" pane="bottomLeft" sqref="E4"/>
+      <selection activeCell="B3" pane="bottomLeft" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1180,7 +1185,7 @@
     <col customWidth="1" max="1" min="1" style="2" width="10.375"/>
     <col customWidth="1" max="2" min="2" style="2" width="15"/>
     <col customWidth="1" max="3" min="3" style="2" width="27.375"/>
-    <col customWidth="1" max="4" min="4" style="2" width="56"/>
+    <col customWidth="1" max="4" min="4" style="2" width="68.75"/>
     <col customWidth="1" max="5" min="5" style="2" width="8.25"/>
     <col customWidth="1" max="6" min="6" style="2" width="21.375"/>
     <col customWidth="1" max="7" min="7" style="2" width="32.5"/>

--- a/report/excelReport/DemoPharmacistAPITestCase.xlsx
+++ b/report/excelReport/DemoPharmacistAPITestCase.xlsx
@@ -11,6 +11,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>

--- a/report/excelReport/DemoPharmacistAPITestCase.xlsx
+++ b/report/excelReport/DemoPharmacistAPITestCase.xlsx
@@ -11,6 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>

--- a/report/excelReport/DemoPharmacistAPITestCase.xlsx
+++ b/report/excelReport/DemoPharmacistAPITestCase.xlsx
@@ -11,8 +11,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$M$15</definedName>
